--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.235147999999999</v>
+        <v>19.35876433333334</v>
       </c>
       <c r="H2">
-        <v>21.705444</v>
+        <v>58.07629300000001</v>
       </c>
       <c r="I2">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="J2">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N2">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q2">
-        <v>332.502177942356</v>
+        <v>937.4328629649219</v>
       </c>
       <c r="R2">
-        <v>2992.519601481204</v>
+        <v>8436.895766684298</v>
       </c>
       <c r="S2">
-        <v>0.5727688814317934</v>
+        <v>0.6127249233193688</v>
       </c>
       <c r="T2">
-        <v>0.5727688814317934</v>
+        <v>0.6127249233193687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.235147999999999</v>
+        <v>19.35876433333334</v>
       </c>
       <c r="H3">
-        <v>21.705444</v>
+        <v>58.07629300000001</v>
       </c>
       <c r="I3">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="J3">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
         <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P3">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q3">
-        <v>49.56014640070399</v>
+        <v>132.6058837354436</v>
       </c>
       <c r="R3">
-        <v>446.0413176063358</v>
+        <v>1193.452953618992</v>
       </c>
       <c r="S3">
-        <v>0.08537240204919305</v>
+        <v>0.08667386556783976</v>
       </c>
       <c r="T3">
-        <v>0.08537240204919304</v>
+        <v>0.08667386556783975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.235147999999999</v>
+        <v>19.35876433333334</v>
       </c>
       <c r="H4">
-        <v>21.705444</v>
+        <v>58.07629300000001</v>
       </c>
       <c r="I4">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="J4">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q4">
-        <v>155.168297705784</v>
+        <v>415.1769262067313</v>
       </c>
       <c r="R4">
-        <v>1396.514679352056</v>
+        <v>3736.592335860582</v>
       </c>
       <c r="S4">
-        <v>0.2672932034930167</v>
+        <v>0.2713679670556949</v>
       </c>
       <c r="T4">
-        <v>0.2672932034930167</v>
+        <v>0.2713679670556949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>0.3016356666666667</v>
       </c>
       <c r="H5">
-        <v>0.904907</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I5">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="J5">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N5">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q5">
-        <v>13.86212363752078</v>
+        <v>14.60646876561144</v>
       </c>
       <c r="R5">
-        <v>124.759112737687</v>
+        <v>131.458218890503</v>
       </c>
       <c r="S5">
-        <v>0.02387892043073617</v>
+        <v>0.00954708097822566</v>
       </c>
       <c r="T5">
-        <v>0.02387892043073617</v>
+        <v>0.009547080978225658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>0.3016356666666667</v>
       </c>
       <c r="H6">
-        <v>0.904907</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I6">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="J6">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
         <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P6">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q6">
         <v>2.066178577089778</v>
@@ -818,10 +818,10 @@
         <v>18.595607193808</v>
       </c>
       <c r="S6">
-        <v>0.003559203129921192</v>
+        <v>0.00135049576372578</v>
       </c>
       <c r="T6">
-        <v>0.003559203129921191</v>
+        <v>0.00135049576372578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>0.3016356666666667</v>
       </c>
       <c r="H7">
-        <v>0.904907</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I7">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="J7">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q7">
-        <v>6.469016656468669</v>
+        <v>6.469016656468666</v>
       </c>
       <c r="R7">
-        <v>58.22114990821801</v>
+        <v>58.221149908218</v>
       </c>
       <c r="S7">
-        <v>0.01114354034376147</v>
+        <v>0.004228279049499038</v>
       </c>
       <c r="T7">
-        <v>0.01114354034376147</v>
+        <v>0.004228279049499038</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2813256666666667</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H8">
-        <v>0.8439770000000001</v>
+        <v>0.843977</v>
       </c>
       <c r="I8">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="J8">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N8">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q8">
-        <v>12.92874684495078</v>
+        <v>13.62297306728144</v>
       </c>
       <c r="R8">
-        <v>116.358721604557</v>
+        <v>122.606757605533</v>
       </c>
       <c r="S8">
-        <v>0.02227108380018215</v>
+        <v>0.008904248461731379</v>
       </c>
       <c r="T8">
-        <v>0.02227108380018215</v>
+        <v>0.008904248461731377</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2813256666666667</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H9">
-        <v>0.8439770000000001</v>
+        <v>0.843977</v>
       </c>
       <c r="I9">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="J9">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,16 +986,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
         <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P9">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q9">
         <v>1.927056810209778</v>
@@ -1004,10 +1004,10 @@
         <v>17.343511291888</v>
       </c>
       <c r="S9">
-        <v>0.003319551710818347</v>
+        <v>0.001259562986231726</v>
       </c>
       <c r="T9">
-        <v>0.003319551710818347</v>
+        <v>0.001259562986231726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2813256666666667</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H10">
-        <v>0.8439770000000001</v>
+        <v>0.843977</v>
       </c>
       <c r="I10">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="J10">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q10">
-        <v>6.033439094488668</v>
+        <v>6.033439094488665</v>
       </c>
       <c r="R10">
-        <v>54.30095185039801</v>
+        <v>54.30095185039799</v>
       </c>
       <c r="S10">
-        <v>0.01039321361057741</v>
+        <v>0.003943576817682977</v>
       </c>
       <c r="T10">
-        <v>0.01039321361057741</v>
+        <v>0.003943576817682977</v>
       </c>
     </row>
   </sheetData>
